--- a/data/2019-German-Trophy/iaf.xlsx
+++ b/data/2019-German-Trophy/iaf.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="14820"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="14820"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$S$128</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Tabelle1!$1:$1</definedName>
     <definedName name="out" localSheetId="0">Tabelle1!$A$1:$T$130</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -519,12 +520,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -809,34 +811,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="6" width="7.85546875" customWidth="1"/>
     <col min="7" max="7" width="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
     <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
     <col min="11" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.42578125" customWidth="1"/>
     <col min="15" max="15" width="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" customWidth="1"/>
     <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" customWidth="1"/>
     <col min="19" max="19" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -906,52 +906,52 @@
       <c r="B2">
         <v>136</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>1.03</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0.64</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>0.38</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0.17</v>
       </c>
       <c r="G2">
         <v>61</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="3">
         <v>0.67</v>
       </c>
       <c r="I2">
         <v>74</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="3">
         <v>0.62</v>
       </c>
       <c r="K2">
         <v>33</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>-0.35</v>
       </c>
       <c r="M2">
         <v>28</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <v>0.3</v>
       </c>
       <c r="O2">
         <v>35</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="Q2">
         <v>39</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="3">
         <v>0.38</v>
       </c>
       <c r="S2">
@@ -965,52 +965,52 @@
       <c r="B3">
         <v>136</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>0.97</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.67</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="G3">
         <v>68</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>0.96</v>
       </c>
       <c r="I3">
         <v>68</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="K3">
         <v>32</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>0.56000000000000005</v>
       </c>
       <c r="M3">
         <v>36</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <v>0.19</v>
       </c>
       <c r="O3">
         <v>30</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="3">
         <v>0.67</v>
       </c>
       <c r="Q3">
         <v>38</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="3">
         <v>0.5</v>
       </c>
       <c r="S3">
@@ -1024,52 +1024,52 @@
       <c r="B4">
         <v>136</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>0.96</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.24</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.72</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.69</v>
       </c>
       <c r="G4">
         <v>68</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0.88</v>
       </c>
       <c r="I4">
         <v>68</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>0.2</v>
       </c>
       <c r="K4">
         <v>31</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>1.0900000000000001</v>
       </c>
       <c r="M4">
         <v>37</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>0.15</v>
       </c>
       <c r="O4">
         <v>37</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q4">
         <v>31</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="S4">
@@ -1083,52 +1083,52 @@
       <c r="B5">
         <v>135</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.88</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.61</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.27</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.15</v>
       </c>
       <c r="G5">
         <v>55</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>0.44</v>
       </c>
       <c r="I5">
         <v>79</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>0.3</v>
       </c>
       <c r="K5">
         <v>30</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>-0.03</v>
       </c>
       <c r="M5">
         <v>25</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <v>-0.2</v>
       </c>
       <c r="O5">
         <v>41</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="3">
         <v>0.61</v>
       </c>
       <c r="Q5">
         <v>38</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="3">
         <v>0.25</v>
       </c>
       <c r="S5">
@@ -1142,52 +1142,52 @@
       <c r="B6">
         <v>136</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>0.86</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>0.65</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>0.21</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>0.65</v>
       </c>
       <c r="G6">
         <v>71</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>-0.21</v>
       </c>
       <c r="I6">
         <v>65</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>0.62</v>
       </c>
       <c r="K6">
         <v>29</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>0.67</v>
       </c>
       <c r="M6">
         <v>42</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <v>-0.04</v>
       </c>
       <c r="O6">
         <v>30</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="3">
         <v>0.35</v>
       </c>
       <c r="Q6">
         <v>35</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="3">
         <v>-0.39</v>
       </c>
       <c r="S6">
@@ -1201,52 +1201,52 @@
       <c r="B7">
         <v>136</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>0.83</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>0.21</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>0.62</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>0.7</v>
       </c>
       <c r="G7">
         <v>68</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>0.65</v>
       </c>
       <c r="I7">
         <v>67</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>0.82</v>
       </c>
       <c r="K7">
         <v>31</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>0.6</v>
       </c>
       <c r="M7">
         <v>37</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <v>0.17</v>
       </c>
       <c r="O7">
         <v>34</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="3">
         <v>0.35</v>
       </c>
       <c r="Q7">
         <v>33</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="3">
         <v>0.39</v>
       </c>
       <c r="S7">
@@ -1260,52 +1260,52 @@
       <c r="B8">
         <v>103</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>0.82</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>0.24</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>1.1599999999999999</v>
       </c>
       <c r="G8">
         <v>46</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>-0.44</v>
       </c>
       <c r="I8">
         <v>56</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>1.39</v>
       </c>
       <c r="K8">
         <v>29</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>0.76</v>
       </c>
       <c r="M8">
         <v>17</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <v>0.74</v>
       </c>
       <c r="O8">
         <v>30</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="3">
         <v>-0.62</v>
       </c>
       <c r="Q8">
         <v>26</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="3">
         <v>-0.55000000000000004</v>
       </c>
       <c r="S8">
@@ -1319,52 +1319,52 @@
       <c r="B9">
         <v>135</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.78</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.5</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.23</v>
       </c>
       <c r="G9">
         <v>67</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>0.89</v>
       </c>
       <c r="I9">
         <v>68</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>0.42</v>
       </c>
       <c r="K9">
         <v>32</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>0.06</v>
       </c>
       <c r="M9">
         <v>35</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="O9">
         <v>32</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="3">
         <v>1.1299999999999999</v>
       </c>
       <c r="Q9">
         <v>36</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="3">
         <v>0.16</v>
       </c>
       <c r="S9">
@@ -1378,52 +1378,52 @@
       <c r="B10">
         <v>134</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.78</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>0.38</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>0.4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.39</v>
       </c>
       <c r="G10">
         <v>71</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>0.53</v>
       </c>
       <c r="I10">
         <v>63</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>1.1100000000000001</v>
       </c>
       <c r="K10">
         <v>35</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>-0.3</v>
       </c>
       <c r="M10">
         <v>36</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <v>0.16</v>
       </c>
       <c r="O10">
         <v>26</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="3">
         <v>0.42</v>
       </c>
       <c r="Q10">
         <v>37</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="3">
         <v>0.21</v>
       </c>
       <c r="S10">
@@ -1437,52 +1437,52 @@
       <c r="B11">
         <v>136</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.77</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.5</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>0.27</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.77</v>
       </c>
       <c r="G11">
         <v>72</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>-0.09</v>
       </c>
       <c r="I11">
         <v>63</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>0.79</v>
       </c>
       <c r="K11">
         <v>30</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>0.75</v>
       </c>
       <c r="M11">
         <v>42</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <v>-0.67</v>
       </c>
       <c r="O11">
         <v>28</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="3">
         <v>0.45</v>
       </c>
       <c r="Q11">
         <v>35</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="3">
         <v>-0.04</v>
       </c>
       <c r="S11">
@@ -1496,52 +1496,52 @@
       <c r="B12">
         <v>136</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.73</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.17</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.27</v>
       </c>
       <c r="G12">
         <v>68</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>0.19</v>
       </c>
       <c r="I12">
         <v>68</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>0.22</v>
       </c>
       <c r="K12">
         <v>36</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="3">
         <v>0.32</v>
       </c>
       <c r="M12">
         <v>32</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <v>0.54</v>
       </c>
       <c r="O12">
         <v>36</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="3">
         <v>0.04</v>
       </c>
       <c r="Q12">
         <v>32</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="3">
         <v>-0.12</v>
       </c>
       <c r="S12">
@@ -1555,52 +1555,52 @@
       <c r="B13">
         <v>134</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>0.6</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.67</v>
       </c>
       <c r="G13">
         <v>72</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <v>0.66</v>
       </c>
       <c r="I13">
         <v>62</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="3">
         <v>0.78</v>
       </c>
       <c r="K13">
         <v>37</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="3">
         <v>0.54</v>
       </c>
       <c r="M13">
         <v>35</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <v>0.27</v>
       </c>
       <c r="O13">
         <v>34</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="3">
         <v>0.46</v>
       </c>
       <c r="Q13">
         <v>28</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="3">
         <v>0.31</v>
       </c>
       <c r="S13">
@@ -1614,52 +1614,52 @@
       <c r="B14">
         <v>136</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>0.7</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.13</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0.4</v>
       </c>
       <c r="G14">
         <v>70</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <v>0.84</v>
       </c>
       <c r="I14">
         <v>66</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>0.68</v>
       </c>
       <c r="K14">
         <v>31</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="3">
         <v>0.19</v>
       </c>
       <c r="M14">
         <v>39</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <v>0.78</v>
       </c>
       <c r="O14">
         <v>32</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="Q14">
         <v>34</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="3">
         <v>0.5</v>
       </c>
       <c r="S14">
@@ -1673,52 +1673,52 @@
       <c r="B15">
         <v>135</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0.68</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.12</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>0.45</v>
       </c>
       <c r="G15">
         <v>64</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <v>0.8</v>
       </c>
       <c r="I15">
         <v>71</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="3">
         <v>0.4</v>
       </c>
       <c r="K15">
         <v>32</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="3">
         <v>0.51</v>
       </c>
       <c r="M15">
         <v>32</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <v>0.4</v>
       </c>
       <c r="O15">
         <v>29</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="3">
         <v>0.34</v>
       </c>
       <c r="Q15">
         <v>42</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="3">
         <v>0.43</v>
       </c>
       <c r="S15">
@@ -1732,52 +1732,52 @@
       <c r="B16">
         <v>136</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.67</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.12</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>0.42</v>
       </c>
       <c r="G16">
         <v>63</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>0.83</v>
       </c>
       <c r="I16">
         <v>73</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="3">
         <v>0</v>
       </c>
       <c r="K16">
         <v>34</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="3">
         <v>0.9</v>
       </c>
       <c r="M16">
         <v>29</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <v>0.24</v>
       </c>
       <c r="O16">
         <v>40</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="3">
         <v>0.34</v>
       </c>
       <c r="Q16">
         <v>33</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="3">
         <v>0.54</v>
       </c>
       <c r="S16">
@@ -1791,52 +1791,52 @@
       <c r="B17">
         <v>135</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>0.63</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>0.36</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>0.27</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>-0.54</v>
       </c>
       <c r="G17">
         <v>61</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>1.07</v>
       </c>
       <c r="I17">
         <v>74</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="3">
         <v>0.42</v>
       </c>
       <c r="K17">
         <v>32</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="3">
         <v>-1.61</v>
       </c>
       <c r="M17">
         <v>29</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <v>0.5</v>
       </c>
       <c r="O17">
         <v>42</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="3">
         <v>0.63</v>
       </c>
       <c r="Q17">
         <v>32</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="3">
         <v>0.51</v>
       </c>
       <c r="S17">
@@ -1850,52 +1850,52 @@
       <c r="B18">
         <v>88</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>0.63</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>0.04</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>0.59</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.92</v>
       </c>
       <c r="G18">
         <v>49</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>0.11</v>
       </c>
       <c r="I18">
         <v>38</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="3">
         <v>1.1100000000000001</v>
       </c>
       <c r="K18">
         <v>26</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="3">
         <v>0.7</v>
       </c>
       <c r="M18">
         <v>23</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <v>0.42</v>
       </c>
       <c r="O18">
         <v>13</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="3">
         <v>0.15</v>
       </c>
       <c r="Q18">
         <v>25</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="3">
         <v>-0.13</v>
       </c>
       <c r="S18">
@@ -1909,52 +1909,52 @@
       <c r="B19">
         <v>136</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>0.59</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>0.52</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.19</v>
       </c>
       <c r="G19">
         <v>72</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <v>1.0900000000000001</v>
       </c>
       <c r="I19">
         <v>64</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>0.47</v>
       </c>
       <c r="K19">
         <v>34</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="3">
         <v>-0.06</v>
       </c>
       <c r="M19">
         <v>38</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <v>0.2</v>
       </c>
       <c r="O19">
         <v>31</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="3">
         <v>0.78</v>
       </c>
       <c r="Q19">
         <v>33</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="3">
         <v>0.59</v>
       </c>
       <c r="S19">
@@ -1968,52 +1968,52 @@
       <c r="B20">
         <v>135</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>0.04</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>0.52</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="3">
         <v>0.81</v>
       </c>
       <c r="G20">
         <v>64</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <v>0.35</v>
       </c>
       <c r="I20">
         <v>71</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="3">
         <v>0.96</v>
       </c>
       <c r="K20">
         <v>43</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="3">
         <v>0.52</v>
       </c>
       <c r="M20">
         <v>21</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <v>0.41</v>
       </c>
       <c r="O20">
         <v>41</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="3">
         <v>0.17</v>
       </c>
       <c r="Q20">
         <v>30</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="3">
         <v>0.05</v>
       </c>
       <c r="S20">
@@ -2027,52 +2027,52 @@
       <c r="B21">
         <v>96</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>0.41</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <v>-0.22</v>
       </c>
       <c r="G21">
         <v>47</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <v>0.51</v>
       </c>
       <c r="I21">
         <v>48</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <v>-0.57999999999999996</v>
       </c>
       <c r="K21">
         <v>26</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="3">
         <v>0.23</v>
       </c>
       <c r="M21">
         <v>21</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <v>0.24</v>
       </c>
       <c r="O21">
         <v>26</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="3">
         <v>0.52</v>
       </c>
       <c r="Q21">
         <v>22</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="3">
         <v>0.15</v>
       </c>
       <c r="S21">
@@ -2086,52 +2086,52 @@
       <c r="B22">
         <v>136</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>0.19</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <v>0.36</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="3">
         <v>0.93</v>
       </c>
       <c r="G22">
         <v>66</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <v>-0.06</v>
       </c>
       <c r="I22">
         <v>70</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="K22">
         <v>33</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="3">
         <v>1.32</v>
       </c>
       <c r="M22">
         <v>33</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <v>0.01</v>
       </c>
       <c r="O22">
         <v>32</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="3">
         <v>0.12</v>
       </c>
       <c r="Q22">
         <v>38</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="3">
         <v>-0.13</v>
       </c>
       <c r="S22">
@@ -2145,52 +2145,52 @@
       <c r="B23">
         <v>136</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>0.52</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>0.49</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <v>0.03</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="3">
         <v>0.22</v>
       </c>
       <c r="G23">
         <v>69</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <v>-0.09</v>
       </c>
       <c r="I23">
         <v>67</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="3">
         <v>0.61</v>
       </c>
       <c r="K23">
         <v>30</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="3">
         <v>-0.09</v>
       </c>
       <c r="M23">
         <v>39</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="3">
         <v>0.24</v>
       </c>
       <c r="O23">
         <v>37</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="3">
         <v>-0.05</v>
       </c>
       <c r="Q23">
         <v>30</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="3">
         <v>-0.2</v>
       </c>
       <c r="S23">
@@ -2204,52 +2204,52 @@
       <c r="B24">
         <v>135</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>0.52</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>0.26</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <v>0.25</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="3">
         <v>0.56000000000000005</v>
       </c>
       <c r="G24">
         <v>74</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <v>0.01</v>
       </c>
       <c r="I24">
         <v>61</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="3">
         <v>0.52</v>
       </c>
       <c r="K24">
         <v>35</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="3">
         <v>0.59</v>
       </c>
       <c r="M24">
         <v>39</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <v>0.44</v>
       </c>
       <c r="O24">
         <v>28</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="3">
         <v>0.16</v>
       </c>
       <c r="Q24">
         <v>33</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="3">
         <v>-0.27</v>
       </c>
       <c r="S24">
@@ -2263,52 +2263,52 @@
       <c r="B25">
         <v>136</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>0.49</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>0.21</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <v>0.47</v>
       </c>
       <c r="G25">
         <v>64</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <v>0.17</v>
       </c>
       <c r="I25">
         <v>72</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <v>0.92</v>
       </c>
       <c r="K25">
         <v>34</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="3">
         <v>-0.03</v>
       </c>
       <c r="M25">
         <v>30</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="O25">
         <v>39</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="3">
         <v>0.06</v>
       </c>
       <c r="Q25">
         <v>33</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="3">
         <v>0.06</v>
       </c>
       <c r="S25">
@@ -2322,52 +2322,52 @@
       <c r="B26">
         <v>136</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>0.48</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>0.32</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <v>0.16</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="3">
         <v>0.35</v>
       </c>
       <c r="G26">
         <v>68</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <v>0.09</v>
       </c>
       <c r="I26">
         <v>66</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="3">
         <v>-0.05</v>
       </c>
       <c r="K26">
         <v>37</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="3">
         <v>0.82</v>
       </c>
       <c r="M26">
         <v>31</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <v>-0.3</v>
       </c>
       <c r="O26">
         <v>30</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="3">
         <v>0.11</v>
       </c>
       <c r="Q26">
         <v>36</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="3">
         <v>0.17</v>
       </c>
       <c r="S26">
@@ -2381,52 +2381,52 @@
       <c r="B27">
         <v>88</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>0.48</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="3">
         <v>0.06</v>
       </c>
       <c r="G27">
         <v>42</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <v>-0.16</v>
       </c>
       <c r="I27">
         <v>46</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="3">
         <v>0.12</v>
       </c>
       <c r="K27">
         <v>19</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="3">
         <v>0.01</v>
       </c>
       <c r="M27">
         <v>23</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="3">
         <v>0.22</v>
       </c>
       <c r="O27">
         <v>25</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="3">
         <v>0.56999999999999995</v>
       </c>
       <c r="Q27">
         <v>21</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="3">
         <v>-0.54</v>
       </c>
       <c r="S27">
@@ -2440,52 +2440,52 @@
       <c r="B28">
         <v>128</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>0.46</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0.3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>0.17</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>-0.27</v>
       </c>
       <c r="G28">
         <v>72</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <v>0.77</v>
       </c>
       <c r="I28">
         <v>56</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <v>-0.15</v>
       </c>
       <c r="K28">
         <v>40</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="3">
         <v>-0.41</v>
       </c>
       <c r="M28">
         <v>32</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="3">
         <v>0.77</v>
       </c>
       <c r="O28">
         <v>29</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="3">
         <v>0.18</v>
       </c>
       <c r="Q28">
         <v>27</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="S28">
@@ -2499,52 +2499,52 @@
       <c r="B29">
         <v>136</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>0.46</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0.15</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0.3</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>0.15</v>
       </c>
       <c r="G29">
         <v>66</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <v>0.57999999999999996</v>
       </c>
       <c r="I29">
         <v>70</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>0.71</v>
       </c>
       <c r="K29">
         <v>30</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="3">
         <v>-0.31</v>
       </c>
       <c r="M29">
         <v>36</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="3">
         <v>0.11</v>
       </c>
       <c r="O29">
         <v>31</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="3">
         <v>0.96</v>
       </c>
       <c r="Q29">
         <v>39</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29">
@@ -2558,52 +2558,52 @@
       <c r="B30">
         <v>96</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>0.46</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0.62</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>-0.16</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>0.16</v>
       </c>
       <c r="G30">
         <v>50</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <v>-0.46</v>
       </c>
       <c r="I30">
         <v>46</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="3">
         <v>0.13</v>
       </c>
       <c r="K30">
         <v>25</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="3">
         <v>0.19</v>
       </c>
       <c r="M30">
         <v>25</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <v>0.2</v>
       </c>
       <c r="O30">
         <v>20</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="3">
         <v>0.09</v>
       </c>
       <c r="Q30">
         <v>26</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="3">
         <v>-0.6</v>
       </c>
       <c r="S30">
@@ -2617,52 +2617,52 @@
       <c r="B31">
         <v>136</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>0.45</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.26</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>0.19</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>0.46</v>
       </c>
       <c r="G31">
         <v>75</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <v>0.03</v>
       </c>
       <c r="I31">
         <v>60</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="3">
         <v>0.67</v>
       </c>
       <c r="K31">
         <v>36</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="3">
         <v>0.26</v>
       </c>
       <c r="M31">
         <v>39</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="3">
         <v>0.22</v>
       </c>
       <c r="O31">
         <v>32</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="3">
         <v>-0.03</v>
       </c>
       <c r="Q31">
         <v>28</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="S31">
@@ -2676,52 +2676,52 @@
       <c r="B32">
         <v>88</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>0.45</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>0.17</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>0.27</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>0.32</v>
       </c>
       <c r="G32">
         <v>49</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="I32">
         <v>39</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="3">
         <v>0.26</v>
       </c>
       <c r="K32">
         <v>29</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="3">
         <v>0.42</v>
       </c>
       <c r="M32">
         <v>20</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="3">
         <v>0.45</v>
       </c>
       <c r="O32">
         <v>21</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="3">
         <v>1.08</v>
       </c>
       <c r="Q32">
         <v>18</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="3">
         <v>-0.45</v>
       </c>
       <c r="S32">
@@ -2735,52 +2735,52 @@
       <c r="B33">
         <v>135</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>0.43</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>-0.13</v>
       </c>
       <c r="G33">
         <v>63</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <v>0.36</v>
       </c>
       <c r="I33">
         <v>72</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="3">
         <v>-0.65</v>
       </c>
       <c r="K33">
         <v>37</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="3">
         <v>0.6</v>
       </c>
       <c r="M33">
         <v>26</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="3">
         <v>-0.25</v>
       </c>
       <c r="O33">
         <v>41</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="3">
         <v>0.24</v>
       </c>
       <c r="Q33">
         <v>31</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="3">
         <v>0.4</v>
       </c>
       <c r="S33">
@@ -2794,52 +2794,52 @@
       <c r="B34">
         <v>136</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>0.42</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>0.11</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>0.31</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>-0.53</v>
       </c>
       <c r="G34">
         <v>65</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <v>1.1499999999999999</v>
       </c>
       <c r="I34">
         <v>71</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="3">
         <v>-0.55000000000000004</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="3">
         <v>-0.51</v>
       </c>
       <c r="M34">
         <v>32</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="3">
         <v>0.98</v>
       </c>
       <c r="O34">
         <v>44</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="3">
         <v>0.44</v>
       </c>
       <c r="Q34">
         <v>27</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="3">
         <v>0.38</v>
       </c>
       <c r="S34">
@@ -2853,52 +2853,52 @@
       <c r="B35">
         <v>136</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>0.41</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>0.13</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>0.27</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>0.6</v>
       </c>
       <c r="G35">
         <v>64</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <v>0</v>
       </c>
       <c r="I35">
         <v>72</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="K35">
         <v>20</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="3">
         <v>0.62</v>
       </c>
       <c r="M35">
         <v>44</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="O35">
         <v>43</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="3">
         <v>-0.14000000000000001</v>
       </c>
       <c r="Q35">
         <v>29</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="3">
         <v>-0.12</v>
       </c>
       <c r="S35">
@@ -2912,52 +2912,52 @@
       <c r="B36">
         <v>135</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>0.4</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>0.13</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>0.27</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>0.4</v>
       </c>
       <c r="G36">
         <v>68</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <v>0.21</v>
       </c>
       <c r="I36">
         <v>67</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="3">
         <v>0.54</v>
       </c>
       <c r="K36">
         <v>30</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="M36">
         <v>38</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="3">
         <v>0.02</v>
       </c>
       <c r="O36">
         <v>33</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="3">
         <v>0.19</v>
       </c>
       <c r="Q36">
         <v>34</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="3">
         <v>0.1</v>
       </c>
       <c r="S36">
@@ -2971,52 +2971,52 @@
       <c r="B37">
         <v>136</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>0.4</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>0.09</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>0.3</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>0.74</v>
       </c>
       <c r="G37">
         <v>65</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <v>0.03</v>
       </c>
       <c r="I37">
         <v>70</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="3">
         <v>0.59</v>
       </c>
       <c r="K37">
         <v>35</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="3">
         <v>0.91</v>
       </c>
       <c r="M37">
         <v>30</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="3">
         <v>0</v>
       </c>
       <c r="O37">
         <v>31</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="3">
         <v>0.1</v>
       </c>
       <c r="Q37">
         <v>39</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="3">
         <v>-0.02</v>
       </c>
       <c r="S37">
@@ -3030,52 +3030,52 @@
       <c r="B38">
         <v>136</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>0.39</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>0.22</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>0.17</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>0.45</v>
       </c>
       <c r="G38">
         <v>72</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <v>0.01</v>
       </c>
       <c r="I38">
         <v>63</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="3">
         <v>0.54</v>
       </c>
       <c r="K38">
         <v>31</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="3">
         <v>0.39</v>
       </c>
       <c r="M38">
         <v>41</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="3">
         <v>0.11</v>
       </c>
       <c r="O38">
         <v>34</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="3">
         <v>0.3</v>
       </c>
       <c r="Q38">
         <v>29</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="3">
         <v>-0.18</v>
       </c>
       <c r="S38">
@@ -3089,52 +3089,52 @@
       <c r="B39">
         <v>135</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>0.39</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>0.15</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="3">
         <v>0.24</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="3">
         <v>0.38</v>
       </c>
       <c r="G39">
         <v>63</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <v>0.17</v>
       </c>
       <c r="I39">
         <v>72</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="3">
         <v>0.46</v>
       </c>
       <c r="K39">
         <v>34</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="3">
         <v>0.27</v>
       </c>
       <c r="M39">
         <v>29</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="3">
         <v>0.13</v>
       </c>
       <c r="O39">
         <v>44</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="3">
         <v>0.23</v>
       </c>
       <c r="Q39">
         <v>28</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="3">
         <v>0.01</v>
       </c>
       <c r="S39">
@@ -3148,52 +3148,52 @@
       <c r="B40">
         <v>136</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>0.38</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>0.17</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <v>0.21</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="3">
         <v>0.81</v>
       </c>
       <c r="G40">
         <v>62</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <v>-0.24</v>
       </c>
       <c r="I40">
         <v>74</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="3">
         <v>1.1299999999999999</v>
       </c>
       <c r="K40">
         <v>28</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="3">
         <v>0.54</v>
       </c>
       <c r="M40">
         <v>34</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O40">
         <v>31</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="3">
         <v>0.06</v>
       </c>
       <c r="Q40">
         <v>43</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="3">
         <v>-0.31</v>
       </c>
       <c r="S40">
@@ -3207,52 +3207,52 @@
       <c r="B41">
         <v>134</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>0.37</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="3">
         <v>0.44</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="G41">
         <v>72</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <v>0.35</v>
       </c>
       <c r="I41">
         <v>62</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="3">
         <v>0.45</v>
       </c>
       <c r="K41">
         <v>34</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="3">
         <v>0.64</v>
       </c>
       <c r="M41">
         <v>38</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="3">
         <v>0.16</v>
       </c>
       <c r="O41">
         <v>37</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="3">
         <v>0.6</v>
       </c>
       <c r="Q41">
         <v>25</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="3">
         <v>0.02</v>
       </c>
       <c r="S41">
@@ -3266,52 +3266,52 @@
       <c r="B42">
         <v>136</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>0.35</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>0.23</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <v>0.12</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="3">
         <v>0.05</v>
       </c>
       <c r="G42">
         <v>76</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <v>0.3</v>
       </c>
       <c r="I42">
         <v>60</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="3">
         <v>-0.31</v>
       </c>
       <c r="K42">
         <v>37</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="3">
         <v>0.4</v>
       </c>
       <c r="M42">
         <v>39</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="3">
         <v>0.24</v>
       </c>
       <c r="O42">
         <v>28</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="3">
         <v>0.31</v>
       </c>
       <c r="Q42">
         <v>32</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="3">
         <v>0.03</v>
       </c>
       <c r="S42">
@@ -3325,52 +3325,52 @@
       <c r="B43">
         <v>128</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>0.35</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>0.15</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <v>0.2</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="3">
         <v>0.53</v>
       </c>
       <c r="G43">
         <v>76</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <v>-0.16</v>
       </c>
       <c r="I43">
         <v>51</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="3">
         <v>0.91</v>
       </c>
       <c r="K43">
         <v>39</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="3">
         <v>0.13</v>
       </c>
       <c r="M43">
         <v>37</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="3">
         <v>-0.22</v>
       </c>
       <c r="O43">
         <v>30</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="3">
         <v>0.35</v>
       </c>
       <c r="Q43">
         <v>21</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="3">
         <v>-0.17</v>
       </c>
       <c r="S43">
@@ -3384,52 +3384,52 @@
       <c r="B44">
         <v>112</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="3">
         <v>0.33</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="3">
         <v>0.33</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="3">
         <v>-0.11</v>
       </c>
       <c r="G44">
         <v>62</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <v>0.98</v>
       </c>
       <c r="I44">
         <v>50</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="3">
         <v>-0.17</v>
       </c>
       <c r="K44">
         <v>31</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="3">
         <v>-0.05</v>
       </c>
       <c r="M44">
         <v>31</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="3">
         <v>0.03</v>
       </c>
       <c r="O44">
         <v>29</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="3">
         <v>0.54</v>
       </c>
       <c r="Q44">
         <v>21</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="3">
         <v>0.73</v>
       </c>
       <c r="S44">
@@ -3443,52 +3443,52 @@
       <c r="B45">
         <v>104</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
         <v>0.11</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="3">
         <v>0.18</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="3">
         <v>-0.16</v>
       </c>
       <c r="G45">
         <v>56</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <v>0.56999999999999995</v>
       </c>
       <c r="I45">
         <v>48</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K45">
         <v>22</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="3">
         <v>-0.21</v>
       </c>
       <c r="M45">
         <v>34</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="O45">
         <v>30</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="3">
         <v>0.65</v>
       </c>
       <c r="Q45">
         <v>18</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="3">
         <v>0.24</v>
       </c>
       <c r="S45">
@@ -3502,52 +3502,52 @@
       <c r="B46">
         <v>136</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>0.26</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>0.23</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <v>0.03</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="3">
         <v>-0.48</v>
       </c>
       <c r="G46">
         <v>74</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <v>0.63</v>
       </c>
       <c r="I46">
         <v>61</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="3">
         <v>-0.54</v>
       </c>
       <c r="K46">
         <v>37</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="3">
         <v>-0.42</v>
       </c>
       <c r="M46">
         <v>37</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="3">
         <v>-0.1</v>
       </c>
       <c r="O46">
         <v>30</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="3">
         <v>0.24</v>
       </c>
       <c r="Q46">
         <v>31</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="3">
         <v>0.56000000000000005</v>
       </c>
       <c r="S46">
@@ -3561,52 +3561,52 @@
       <c r="B47">
         <v>136</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>0.25</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
         <v>-0.04</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="3">
         <v>0.16</v>
       </c>
       <c r="G47">
         <v>67</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <v>0.5</v>
       </c>
       <c r="I47">
         <v>69</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="3">
         <v>0.52</v>
       </c>
       <c r="K47">
         <v>31</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="3">
         <v>-0.16</v>
       </c>
       <c r="M47">
         <v>36</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="3">
         <v>0.04</v>
       </c>
       <c r="O47">
         <v>30</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="3">
         <v>0.37</v>
       </c>
       <c r="Q47">
         <v>39</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="3">
         <v>0.27</v>
       </c>
       <c r="S47">
@@ -3620,52 +3620,52 @@
       <c r="B48">
         <v>136</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>0.25</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>0.08</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="3">
         <v>0.17</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="3">
         <v>0.23</v>
       </c>
       <c r="G48">
         <v>72</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <v>0.19</v>
       </c>
       <c r="I48">
         <v>64</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="3">
         <v>0.54</v>
       </c>
       <c r="K48">
         <v>41</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="3">
         <v>-0.19</v>
       </c>
       <c r="M48">
         <v>31</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O48">
         <v>25</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="3">
         <v>0.34</v>
       </c>
       <c r="Q48">
         <v>39</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="3">
         <v>-0.04</v>
       </c>
       <c r="S48">
@@ -3679,52 +3679,52 @@
       <c r="B49">
         <v>136</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>0.24</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>0.45</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="3">
         <v>-0.21</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="3">
         <v>0.05</v>
       </c>
       <c r="G49">
         <v>73</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <v>-0.51</v>
       </c>
       <c r="I49">
         <v>63</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="3">
         <v>0.01</v>
       </c>
       <c r="K49">
         <v>40</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="3">
         <v>0.09</v>
       </c>
       <c r="M49">
         <v>33</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="3">
         <v>-0.19</v>
       </c>
       <c r="O49">
         <v>27</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="3">
         <v>-0.03</v>
       </c>
       <c r="Q49">
         <v>36</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="3">
         <v>-0.42</v>
       </c>
       <c r="S49">
@@ -3738,52 +3738,52 @@
       <c r="B50">
         <v>136</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>0.22</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>-0.38</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <v>0.6</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="3">
         <v>0.73</v>
       </c>
       <c r="G50">
         <v>74</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <v>0.52</v>
       </c>
       <c r="I50">
         <v>62</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="3">
         <v>-0.4</v>
       </c>
       <c r="K50">
         <v>25</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="3">
         <v>1.3</v>
       </c>
       <c r="M50">
         <v>49</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="3">
         <v>0.18</v>
       </c>
       <c r="O50">
         <v>31</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="3">
         <v>0.18</v>
       </c>
       <c r="Q50">
         <v>31</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="3">
         <v>0.34</v>
       </c>
       <c r="S50">
@@ -3797,52 +3797,52 @@
       <c r="B51">
         <v>136</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>0.19</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="3">
         <v>-0.09</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="3">
         <v>0.48</v>
       </c>
       <c r="G51">
         <v>53</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <v>-0.48</v>
       </c>
       <c r="I51">
         <v>83</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="3">
         <v>0.53</v>
       </c>
       <c r="K51">
         <v>30</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="3">
         <v>0.42</v>
       </c>
       <c r="M51">
         <v>23</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="3">
         <v>-0.43</v>
       </c>
       <c r="O51">
         <v>38</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="3">
         <v>-0.15</v>
       </c>
       <c r="Q51">
         <v>45</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="3">
         <v>-0.2</v>
       </c>
       <c r="S51">
@@ -3856,52 +3856,52 @@
       <c r="B52">
         <v>88</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>0.18</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>-0.02</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="3">
         <v>0.2</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="3">
         <v>0.42</v>
       </c>
       <c r="G52">
         <v>45</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <v>-0.01</v>
       </c>
       <c r="I52">
         <v>43</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="3">
         <v>-0.12</v>
       </c>
       <c r="K52">
         <v>18</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="3">
         <v>0.77</v>
       </c>
       <c r="M52">
         <v>27</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="3">
         <v>0.16</v>
       </c>
       <c r="O52">
         <v>16</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q52">
         <v>27</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="3">
         <v>-0.42</v>
       </c>
       <c r="S52">
@@ -3915,52 +3915,52 @@
       <c r="B53">
         <v>136</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="3">
         <v>0.18</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
         <v>0.68</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="3">
         <v>-0.21</v>
       </c>
       <c r="G53">
         <v>66</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <v>-0.76</v>
       </c>
       <c r="I53">
         <v>70</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="3">
         <v>-0.16</v>
       </c>
       <c r="K53">
         <v>39</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="3">
         <v>-0.28999999999999998</v>
       </c>
       <c r="M53">
         <v>27</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="O53">
         <v>36</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="3">
         <v>-0.15</v>
       </c>
       <c r="Q53">
         <v>34</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="3">
         <v>-0.66</v>
       </c>
       <c r="S53">
@@ -3974,52 +3974,52 @@
       <c r="B54">
         <v>135</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="3">
         <v>0.17</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>0.09</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="3">
         <v>0.08</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="3">
         <v>0.52</v>
       </c>
       <c r="G54">
         <v>60</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <v>-0.24</v>
       </c>
       <c r="I54">
         <v>74</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="3">
         <v>-0.02</v>
       </c>
       <c r="K54">
         <v>24</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="3">
         <v>0.87</v>
       </c>
       <c r="M54">
         <v>36</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="3">
         <v>0.19</v>
       </c>
       <c r="O54">
         <v>36</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="3">
         <v>0.67</v>
       </c>
       <c r="Q54">
         <v>38</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="3">
         <v>-0.68</v>
       </c>
       <c r="S54">
@@ -4033,52 +4033,52 @@
       <c r="B55">
         <v>96</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>0.16</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
         <v>-0.36</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <v>0.52</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="3">
         <v>0.21</v>
       </c>
       <c r="G55">
         <v>43</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="3">
         <v>0.87</v>
       </c>
       <c r="I55">
         <v>52</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="3">
         <v>-0.32</v>
       </c>
       <c r="K55">
         <v>23</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="3">
         <v>0.82</v>
       </c>
       <c r="M55">
         <v>20</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="3">
         <v>0.49</v>
       </c>
       <c r="O55">
         <v>28</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="3">
         <v>0.21</v>
       </c>
       <c r="Q55">
         <v>24</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="3">
         <v>0.5</v>
       </c>
       <c r="S55">
@@ -4092,52 +4092,52 @@
       <c r="B56">
         <v>136</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="3">
         <v>0.16</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
         <v>0.08</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="3">
         <v>0.08</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="3">
         <v>0.23</v>
       </c>
       <c r="G56">
         <v>68</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <v>-0.03</v>
       </c>
       <c r="I56">
         <v>68</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="3">
         <v>-0.2</v>
       </c>
       <c r="K56">
         <v>27</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="3">
         <v>0.52</v>
       </c>
       <c r="M56">
         <v>41</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="3">
         <v>0.52</v>
       </c>
       <c r="O56">
         <v>38</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="3">
         <v>-0.34</v>
       </c>
       <c r="Q56">
         <v>30</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="3">
         <v>-0.17</v>
       </c>
       <c r="S56">
@@ -4151,52 +4151,52 @@
       <c r="B57">
         <v>88</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>0.15</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>-0.23</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <v>0.38</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="3">
         <v>0.18</v>
       </c>
       <c r="G57">
         <v>49</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <v>0.71</v>
       </c>
       <c r="I57">
         <v>38</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="3">
         <v>0.33</v>
       </c>
       <c r="K57">
         <v>19</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="M57">
         <v>30</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="3">
         <v>0.3</v>
       </c>
       <c r="O57">
         <v>22</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="3">
         <v>0.18</v>
       </c>
       <c r="Q57">
         <v>16</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="3">
         <v>0.46</v>
       </c>
       <c r="S57">
@@ -4210,52 +4210,52 @@
       <c r="B58">
         <v>136</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>0.15</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>0.42</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>0.69</v>
       </c>
       <c r="G58">
         <v>60</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="I58">
         <v>75</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>0.45</v>
       </c>
       <c r="K58">
         <v>32</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="3">
         <v>0.96</v>
       </c>
       <c r="M58">
         <v>28</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="3">
         <v>0.1</v>
       </c>
       <c r="O58">
         <v>41</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="3">
         <v>0.25</v>
       </c>
       <c r="Q58">
         <v>34</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="3">
         <v>0.12</v>
       </c>
       <c r="S58">
@@ -4269,52 +4269,52 @@
       <c r="B59">
         <v>96</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>0.12</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>0.42</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="3">
         <v>-0.3</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="3">
         <v>-0.21</v>
       </c>
       <c r="G59">
         <v>46</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <v>-0.39</v>
       </c>
       <c r="I59">
         <v>50</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="3">
         <v>-0.24</v>
       </c>
       <c r="K59">
         <v>24</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="3">
         <v>-0.18</v>
       </c>
       <c r="M59">
         <v>22</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="3">
         <v>0.23</v>
       </c>
       <c r="O59">
         <v>24</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="3">
         <v>-0.06</v>
       </c>
       <c r="Q59">
         <v>26</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="3">
         <v>-0.47</v>
       </c>
       <c r="S59">
@@ -4328,52 +4328,52 @@
       <c r="B60">
         <v>135</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>0.12</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
         <v>0.13</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <v>-0.01</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="3">
         <v>0.52</v>
       </c>
       <c r="G60">
         <v>70</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <v>-0.56000000000000005</v>
       </c>
       <c r="I60">
         <v>65</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="3">
         <v>0.62</v>
       </c>
       <c r="K60">
         <v>39</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="3">
         <v>0.4</v>
       </c>
       <c r="M60">
         <v>31</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="3">
         <v>0.19</v>
       </c>
       <c r="O60">
         <v>37</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="Q60">
         <v>28</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="3">
         <v>-0.79</v>
       </c>
       <c r="S60">
@@ -4387,52 +4387,52 @@
       <c r="B61">
         <v>136</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="3">
         <v>0.12</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="3">
         <v>0.26</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="3">
         <v>0.51</v>
       </c>
       <c r="G61">
         <v>65</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <v>0.13</v>
       </c>
       <c r="I61">
         <v>70</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="3">
         <v>0.67</v>
       </c>
       <c r="K61">
         <v>33</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="3">
         <v>0.35</v>
       </c>
       <c r="M61">
         <v>32</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="3">
         <v>0.39</v>
       </c>
       <c r="O61">
         <v>36</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="3">
         <v>0.32</v>
       </c>
       <c r="Q61">
         <v>34</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="3">
         <v>-0.22</v>
       </c>
       <c r="S61">
@@ -4446,52 +4446,52 @@
       <c r="B62">
         <v>135</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="3">
         <v>0.1</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
         <v>-0.09</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="3">
         <v>0.2</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="3">
         <v>0.18</v>
       </c>
       <c r="G62">
         <v>61</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <v>0.24</v>
       </c>
       <c r="I62">
         <v>73</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="3">
         <v>0.48</v>
       </c>
       <c r="K62">
         <v>28</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M62">
         <v>33</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="3">
         <v>0.1</v>
       </c>
       <c r="O62">
         <v>42</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="3">
         <v>0.22</v>
       </c>
       <c r="Q62">
         <v>31</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="3">
         <v>0.09</v>
       </c>
       <c r="S62">
@@ -4505,52 +4505,52 @@
       <c r="B63">
         <v>88</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="3">
         <v>0.1</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
         <v>-0.16</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="3">
         <v>0.26</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="3">
         <v>0.3</v>
       </c>
       <c r="G63">
         <v>43</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <v>0.32</v>
       </c>
       <c r="I63">
         <v>45</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="3">
         <v>0.18</v>
       </c>
       <c r="K63">
         <v>21</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="3">
         <v>0.42</v>
       </c>
       <c r="M63">
         <v>22</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="3">
         <v>0.03</v>
       </c>
       <c r="O63">
         <v>24</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="3">
         <v>0.56999999999999995</v>
       </c>
       <c r="Q63">
         <v>21</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="3">
         <v>0.04</v>
       </c>
       <c r="S63">
@@ -4564,52 +4564,52 @@
       <c r="B64">
         <v>96</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="3">
         <v>0.1</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
         <v>-0.19</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="3">
         <v>0.28999999999999998</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="3">
         <v>0.31</v>
       </c>
       <c r="G64">
         <v>43</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <v>0.33</v>
       </c>
       <c r="I64">
         <v>53</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="3">
         <v>0.66</v>
       </c>
       <c r="K64">
         <v>21</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="3">
         <v>-0.02</v>
       </c>
       <c r="M64">
         <v>22</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="3">
         <v>0.4</v>
       </c>
       <c r="O64">
         <v>28</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="3">
         <v>0.27</v>
       </c>
       <c r="Q64">
         <v>25</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="3">
         <v>-0.01</v>
       </c>
       <c r="S64">
@@ -4623,52 +4623,52 @@
       <c r="B65">
         <v>96</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="3">
         <v>0.08</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
         <v>0.39</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="3">
         <v>-0.32</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="3">
         <v>-0.76</v>
       </c>
       <c r="G65">
         <v>56</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <v>0.13</v>
       </c>
       <c r="I65">
         <v>40</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="3">
         <v>-0.67</v>
       </c>
       <c r="K65">
         <v>28</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="3">
         <v>-0.84</v>
       </c>
       <c r="M65">
         <v>28</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="3">
         <v>0.72</v>
       </c>
       <c r="O65">
         <v>20</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="3">
         <v>-0.68</v>
       </c>
       <c r="Q65">
         <v>20</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="3">
         <v>0.11</v>
       </c>
       <c r="S65">
@@ -4682,52 +4682,52 @@
       <c r="B66">
         <v>136</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="3">
         <v>0.06</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
         <v>0</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="3">
         <v>0.11</v>
       </c>
       <c r="G66">
         <v>70</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <v>0.11</v>
       </c>
       <c r="I66">
         <v>65</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K66">
         <v>34</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="M66">
         <v>36</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="3">
         <v>0.26</v>
       </c>
       <c r="O66">
         <v>40</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="3">
         <v>0.35</v>
       </c>
       <c r="Q66">
         <v>25</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="3">
         <v>-0.18</v>
       </c>
       <c r="S66">
@@ -4741,52 +4741,52 @@
       <c r="B67">
         <v>135</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="3">
         <v>0.06</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
         <v>0.22</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="3">
         <v>-0.15</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="G67">
         <v>54</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <v>-0.54</v>
       </c>
       <c r="I67">
         <v>81</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="3">
         <v>-0.13</v>
       </c>
       <c r="K67">
         <v>23</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="3">
         <v>0.34</v>
       </c>
       <c r="M67">
         <v>31</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="3">
         <v>-0.26</v>
       </c>
       <c r="O67">
         <v>39</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="3">
         <v>-0.02</v>
       </c>
       <c r="Q67">
         <v>42</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="3">
         <v>-0.4</v>
       </c>
       <c r="S67">
@@ -4800,52 +4800,52 @@
       <c r="B68">
         <v>136</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="3">
         <v>0.06</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
         <v>0.19</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="3">
         <v>-0.13</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="3">
         <v>0.15</v>
       </c>
       <c r="G68">
         <v>66</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="3">
         <v>-0.42</v>
       </c>
       <c r="I68">
         <v>70</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="3">
         <v>0.37</v>
       </c>
       <c r="K68">
         <v>33</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="3">
         <v>-0.06</v>
       </c>
       <c r="M68">
         <v>33</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="3">
         <v>-0.47</v>
       </c>
       <c r="O68">
         <v>35</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="3">
         <v>0.17</v>
       </c>
       <c r="Q68">
         <v>35</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="3">
         <v>-0.27</v>
       </c>
       <c r="S68">
@@ -4859,52 +4859,52 @@
       <c r="B69">
         <v>136</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="3">
         <v>0.05</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
         <v>-0.18</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="3">
         <v>0.24</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="3">
         <v>0.19</v>
       </c>
       <c r="G69">
         <v>70</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="3">
         <v>0.4</v>
       </c>
       <c r="I69">
         <v>66</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="3">
         <v>0.32</v>
       </c>
       <c r="K69">
         <v>33</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="3">
         <v>0.08</v>
       </c>
       <c r="M69">
         <v>37</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="3">
         <v>0.32</v>
       </c>
       <c r="O69">
         <v>34</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="Q69">
         <v>32</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="3">
         <v>0.09</v>
       </c>
       <c r="S69">
@@ -4918,52 +4918,52 @@
       <c r="B70">
         <v>136</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="3">
         <v>0.05</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
         <v>0.25</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="3">
         <v>-0.2</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="3">
         <v>0.25</v>
       </c>
       <c r="G70">
         <v>75</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="3">
         <v>-0.68</v>
       </c>
       <c r="I70">
         <v>61</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="3">
         <v>0.22</v>
       </c>
       <c r="K70">
         <v>39</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="M70">
         <v>36</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="3">
         <v>-0.27</v>
       </c>
       <c r="O70">
         <v>32</v>
       </c>
-      <c r="P70">
+      <c r="P70" s="3">
         <v>-0.11</v>
       </c>
       <c r="Q70">
         <v>29</v>
       </c>
-      <c r="R70">
+      <c r="R70" s="3">
         <v>-0.48</v>
       </c>
       <c r="S70">
@@ -4977,52 +4977,52 @@
       <c r="B71">
         <v>96</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="3">
         <v>0.04</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>-0.34</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>0.39</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="3">
         <v>0.75</v>
       </c>
       <c r="G71">
         <v>55</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="3">
         <v>-0.15</v>
       </c>
       <c r="I71">
         <v>41</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="3">
         <v>0.63</v>
       </c>
       <c r="K71">
         <v>26</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="3">
         <v>0.87</v>
       </c>
       <c r="M71">
         <v>29</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="3">
         <v>-0.27</v>
       </c>
       <c r="O71">
         <v>16</v>
       </c>
-      <c r="P71">
+      <c r="P71" s="3">
         <v>-0.34</v>
       </c>
       <c r="Q71">
         <v>25</v>
       </c>
-      <c r="R71">
+      <c r="R71" s="3">
         <v>0.16</v>
       </c>
       <c r="S71">
@@ -5036,52 +5036,52 @@
       <c r="B72">
         <v>134</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="3">
         <v>0.02</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>0.03</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>0</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="3">
         <v>0.49</v>
       </c>
       <c r="G72">
         <v>63</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="3">
         <v>-0.49</v>
       </c>
       <c r="I72">
         <v>70</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="3">
         <v>0.43</v>
       </c>
       <c r="K72">
         <v>26</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="3">
         <v>0.54</v>
       </c>
       <c r="M72">
         <v>37</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="3">
         <v>0.33</v>
       </c>
       <c r="O72">
         <v>36</v>
       </c>
-      <c r="P72">
+      <c r="P72" s="3">
         <v>0.22</v>
       </c>
       <c r="Q72">
         <v>34</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="3">
         <v>-0.77</v>
       </c>
       <c r="S72">
@@ -5095,52 +5095,52 @@
       <c r="B73">
         <v>136</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="3">
         <v>0.02</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>0.22</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>-0.2</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="3">
         <v>-0.26</v>
       </c>
       <c r="G73">
         <v>59</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="3">
         <v>-0.23</v>
       </c>
       <c r="I73">
         <v>75</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="3">
         <v>0.41</v>
       </c>
       <c r="K73">
         <v>28</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="3">
         <v>-0.88</v>
       </c>
       <c r="M73">
         <v>31</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O73">
         <v>42</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="3">
         <v>0.12</v>
       </c>
       <c r="Q73">
         <v>33</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="3">
         <v>-0.32</v>
       </c>
       <c r="S73">
@@ -5154,52 +5154,52 @@
       <c r="B74">
         <v>136</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="3">
         <v>0.01</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>0.16</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>-0.15</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="3">
         <v>0.2</v>
       </c>
       <c r="G74">
         <v>69</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="3">
         <v>-0.42</v>
       </c>
       <c r="I74">
         <v>67</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="3">
         <v>-0.08</v>
       </c>
       <c r="K74">
         <v>39</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="3">
         <v>0.56999999999999995</v>
       </c>
       <c r="M74">
         <v>30</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="3">
         <v>0.19</v>
       </c>
       <c r="O74">
         <v>31</v>
       </c>
-      <c r="P74">
+      <c r="P74" s="3">
         <v>0.53</v>
       </c>
       <c r="Q74">
         <v>36</v>
       </c>
-      <c r="R74">
+      <c r="R74" s="3">
         <v>-0.79</v>
       </c>
       <c r="S74">
@@ -5213,52 +5213,52 @@
       <c r="B75">
         <v>136</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="3">
         <v>-0.02</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>-0.02</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>0</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="3">
         <v>-0.14000000000000001</v>
       </c>
       <c r="G75">
         <v>79</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="3">
         <v>0.33</v>
       </c>
       <c r="I75">
         <v>57</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="3">
         <v>-0.14000000000000001</v>
       </c>
       <c r="K75">
         <v>35</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="3">
         <v>-0.14000000000000001</v>
       </c>
       <c r="M75">
         <v>44</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="3">
         <v>-0.22</v>
       </c>
       <c r="O75">
         <v>20</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="3">
         <v>0.53</v>
       </c>
       <c r="Q75">
         <v>37</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="3">
         <v>0.05</v>
       </c>
       <c r="S75">
@@ -5272,52 +5272,52 @@
       <c r="B76">
         <v>88</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="3">
         <v>-0.02</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>-0.35</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>0.33</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="3">
         <v>0.08</v>
       </c>
       <c r="G76">
         <v>39</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="3">
         <v>0.62</v>
       </c>
       <c r="I76">
         <v>49</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="3">
         <v>0.13</v>
       </c>
       <c r="K76">
         <v>15</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="3">
         <v>0.06</v>
       </c>
       <c r="M76">
         <v>24</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="3">
         <v>0.5</v>
       </c>
       <c r="O76">
         <v>29</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="Q76">
         <v>20</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="3">
         <v>0.09</v>
       </c>
       <c r="S76">
@@ -5331,52 +5331,52 @@
       <c r="B77">
         <v>136</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="3">
         <v>-0.05</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>-0.13</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>0.08</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="3">
         <v>0.25</v>
       </c>
       <c r="G77">
         <v>68</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="3">
         <v>-0.04</v>
       </c>
       <c r="I77">
         <v>68</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="3">
         <v>0.45</v>
       </c>
       <c r="K77">
         <v>35</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="3">
         <v>0.04</v>
       </c>
       <c r="M77">
         <v>33</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="3">
         <v>0.16</v>
       </c>
       <c r="O77">
         <v>34</v>
       </c>
-      <c r="P77">
+      <c r="P77" s="3">
         <v>0.46</v>
       </c>
       <c r="Q77">
         <v>34</v>
       </c>
-      <c r="R77">
+      <c r="R77" s="3">
         <v>-0.35</v>
       </c>
       <c r="S77">
@@ -5390,52 +5390,52 @@
       <c r="B78">
         <v>136</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="3">
         <v>-0.06</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>-0.1</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>0.03</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="3">
         <v>0.21</v>
       </c>
       <c r="G78">
         <v>63</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="3">
         <v>-0.18</v>
       </c>
       <c r="I78">
         <v>73</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K78">
         <v>42</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="3">
         <v>0.78</v>
       </c>
       <c r="M78">
         <v>21</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="3">
         <v>-0.75</v>
       </c>
       <c r="O78">
         <v>27</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="3">
         <v>0.02</v>
       </c>
       <c r="Q78">
         <v>46</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="3">
         <v>0.09</v>
       </c>
       <c r="S78">
@@ -5449,52 +5449,52 @@
       <c r="B79">
         <v>136</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="3">
         <v>-0.06</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>0.36</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>-0.43</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="3">
         <v>0</v>
       </c>
       <c r="G79">
         <v>56</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="3">
         <v>-0.78</v>
       </c>
       <c r="I79">
         <v>80</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="3">
         <v>0.17</v>
       </c>
       <c r="K79">
         <v>31</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="3">
         <v>-0.2</v>
       </c>
       <c r="M79">
         <v>25</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="3">
         <v>-0.53</v>
       </c>
       <c r="O79">
         <v>43</v>
       </c>
-      <c r="P79">
+      <c r="P79" s="3">
         <v>-0.42</v>
       </c>
       <c r="Q79">
         <v>37</v>
       </c>
-      <c r="R79">
+      <c r="R79" s="3">
         <v>-0.3</v>
       </c>
       <c r="S79">
@@ -5508,52 +5508,52 @@
       <c r="B80">
         <v>136</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>0.11</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>-0.18</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="3">
         <v>0.05</v>
       </c>
       <c r="G80">
         <v>65</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="3">
         <v>-0.35</v>
       </c>
       <c r="I80">
         <v>70</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="3">
         <v>-0.22</v>
       </c>
       <c r="K80">
         <v>30</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="M80">
         <v>35</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="3">
         <v>-0.04</v>
       </c>
       <c r="O80">
         <v>37</v>
       </c>
-      <c r="P80">
+      <c r="P80" s="3">
         <v>0.31</v>
       </c>
       <c r="Q80">
         <v>33</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="3">
         <v>-0.47</v>
       </c>
       <c r="S80">
@@ -5567,52 +5567,52 @@
       <c r="B81">
         <v>136</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>-0.12</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>0.05</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="3">
         <v>0.43</v>
       </c>
       <c r="G81">
         <v>60</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="3">
         <v>-0.17</v>
       </c>
       <c r="I81">
         <v>76</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="3">
         <v>0.42</v>
       </c>
       <c r="K81">
         <v>20</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="3">
         <v>0.43</v>
       </c>
       <c r="M81">
         <v>40</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81">
         <v>41</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="3">
         <v>0.09</v>
       </c>
       <c r="Q81">
         <v>35</v>
       </c>
-      <c r="R81">
+      <c r="R81" s="3">
         <v>-0.21</v>
       </c>
       <c r="S81">
@@ -5626,52 +5626,52 @@
       <c r="B82">
         <v>134</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="3">
         <v>-0.11</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>-0.2</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>0.1</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="3">
         <v>0.43</v>
       </c>
       <c r="G82">
         <v>64</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="3">
         <v>-0.21</v>
       </c>
       <c r="I82">
         <v>69</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="3">
         <v>0.64</v>
       </c>
       <c r="K82">
         <v>36</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="3">
         <v>0.15</v>
       </c>
       <c r="M82">
         <v>28</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="3">
         <v>-0.23</v>
       </c>
       <c r="O82">
         <v>38</v>
       </c>
-      <c r="P82">
+      <c r="P82" s="3">
         <v>-0.21</v>
       </c>
       <c r="Q82">
         <v>31</v>
       </c>
-      <c r="R82">
+      <c r="R82" s="3">
         <v>0.01</v>
       </c>
       <c r="S82">
@@ -5685,52 +5685,52 @@
       <c r="B83">
         <v>88</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="3">
         <v>-0.12</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>0.38</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="3">
         <v>-0.75</v>
       </c>
       <c r="G83">
         <v>49</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="3">
         <v>-0.5</v>
       </c>
       <c r="I83">
         <v>39</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="3">
         <v>-1.1399999999999999</v>
       </c>
       <c r="K83">
         <v>28</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="3">
         <v>-0.23</v>
       </c>
       <c r="M83">
         <v>21</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="3">
         <v>0.1</v>
       </c>
       <c r="O83">
         <v>14</v>
       </c>
-      <c r="P83">
+      <c r="P83" s="3">
         <v>0.62</v>
       </c>
       <c r="Q83">
         <v>25</v>
       </c>
-      <c r="R83">
+      <c r="R83" s="3">
         <v>-0.93</v>
       </c>
       <c r="S83">
@@ -5744,52 +5744,52 @@
       <c r="B84">
         <v>136</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="3">
         <v>-0.15</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>-0.59</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>0.44</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="3">
         <v>0.11</v>
       </c>
       <c r="G84">
         <v>71</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="3">
         <v>0.81</v>
       </c>
       <c r="I84">
         <v>64</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="3">
         <v>-0.3</v>
       </c>
       <c r="K84">
         <v>33</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="3">
         <v>0.47</v>
       </c>
       <c r="M84">
         <v>38</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="3">
         <v>0.47</v>
       </c>
       <c r="O84">
         <v>35</v>
       </c>
-      <c r="P84">
+      <c r="P84" s="3">
         <v>0.35</v>
       </c>
       <c r="Q84">
         <v>29</v>
       </c>
-      <c r="R84">
+      <c r="R84" s="3">
         <v>0.39</v>
       </c>
       <c r="S84">
@@ -5803,52 +5803,52 @@
       <c r="B85">
         <v>136</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="3">
         <v>-0.19</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>-0.04</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>-0.15</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="3">
         <v>-0.3</v>
       </c>
       <c r="G85">
         <v>71</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="3">
         <v>0.11</v>
       </c>
       <c r="I85">
         <v>65</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="3">
         <v>0.03</v>
       </c>
       <c r="K85">
         <v>30</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="3">
         <v>-0.55000000000000004</v>
       </c>
       <c r="M85">
         <v>41</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="3">
         <v>-0.02</v>
       </c>
       <c r="O85">
         <v>39</v>
       </c>
-      <c r="P85">
+      <c r="P85" s="3">
         <v>0.15</v>
       </c>
       <c r="Q85">
         <v>26</v>
       </c>
-      <c r="R85">
+      <c r="R85" s="3">
         <v>0.06</v>
       </c>
       <c r="S85">
@@ -5862,52 +5862,52 @@
       <c r="B86">
         <v>136</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="3">
         <v>-0.2</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>-0.39</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>0.19</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="3">
         <v>0.13</v>
       </c>
       <c r="G86">
         <v>77</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="3">
         <v>0.26</v>
       </c>
       <c r="I86">
         <v>59</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="3">
         <v>0.2</v>
       </c>
       <c r="K86">
         <v>40</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="3">
         <v>0.05</v>
       </c>
       <c r="M86">
         <v>37</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="3">
         <v>0.01</v>
       </c>
       <c r="O86">
         <v>32</v>
       </c>
-      <c r="P86">
+      <c r="P86" s="3">
         <v>0.04</v>
       </c>
       <c r="Q86">
         <v>27</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="3">
         <v>0.23</v>
       </c>
       <c r="S86">
@@ -5921,52 +5921,52 @@
       <c r="B87">
         <v>136</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="3">
         <v>-0.2</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>-0.23</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>0.02</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="3">
         <v>-0.18</v>
       </c>
       <c r="G87">
         <v>74</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="3">
         <v>0.33</v>
       </c>
       <c r="I87">
         <v>62</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="3">
         <v>-0.08</v>
       </c>
       <c r="K87">
         <v>40</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="3">
         <v>-0.3</v>
       </c>
       <c r="M87">
         <v>34</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="3">
         <v>0.38</v>
       </c>
       <c r="O87">
         <v>28</v>
       </c>
-      <c r="P87">
+      <c r="P87" s="3">
         <v>0.33</v>
       </c>
       <c r="Q87">
         <v>34</v>
       </c>
-      <c r="R87">
+      <c r="R87" s="3">
         <v>-0.03</v>
       </c>
       <c r="S87">
@@ -5980,52 +5980,52 @@
       <c r="B88">
         <v>136</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="3">
         <v>-0.26</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>-0.03</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>-0.24</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="3">
         <v>-0.43</v>
       </c>
       <c r="G88">
         <v>76</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="3">
         <v>-0.03</v>
       </c>
       <c r="I88">
         <v>60</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="3">
         <v>-0.09</v>
       </c>
       <c r="K88">
         <v>40</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="3">
         <v>-0.81</v>
       </c>
       <c r="M88">
         <v>36</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="O88">
         <v>28</v>
       </c>
-      <c r="P88">
+      <c r="P88" s="3">
         <v>-0.28000000000000003</v>
       </c>
       <c r="Q88">
         <v>32</v>
       </c>
-      <c r="R88">
+      <c r="R88" s="3">
         <v>0.05</v>
       </c>
       <c r="S88">
@@ -6039,52 +6039,52 @@
       <c r="B89">
         <v>136</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="3">
         <v>-0.27</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>-0.33</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="3">
         <v>0.39</v>
       </c>
       <c r="G89">
         <v>76</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="3">
         <v>-0.24</v>
       </c>
       <c r="I89">
         <v>60</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="3">
         <v>0.26</v>
       </c>
       <c r="K89">
         <v>47</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="3">
         <v>0.6</v>
       </c>
       <c r="M89">
         <v>29</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="3">
         <v>0.2</v>
       </c>
       <c r="O89">
         <v>31</v>
       </c>
-      <c r="P89">
+      <c r="P89" s="3">
         <v>0.18</v>
       </c>
       <c r="Q89">
         <v>29</v>
       </c>
-      <c r="R89">
+      <c r="R89" s="3">
         <v>-0.43</v>
       </c>
       <c r="S89">
@@ -6098,52 +6098,52 @@
       <c r="B90">
         <v>88</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="3">
         <v>-0.27</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>-0.06</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>-0.21</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="3">
         <v>0.7</v>
       </c>
       <c r="G90">
         <v>45</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="3">
         <v>-1.08</v>
       </c>
       <c r="I90">
         <v>43</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="3">
         <v>1.27</v>
       </c>
       <c r="K90">
         <v>21</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="3">
         <v>0.21</v>
       </c>
       <c r="M90">
         <v>24</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="O90">
         <v>29</v>
       </c>
-      <c r="P90">
+      <c r="P90" s="3">
         <v>-0.03</v>
       </c>
       <c r="Q90">
         <v>14</v>
       </c>
-      <c r="R90">
+      <c r="R90" s="3">
         <v>-1.03</v>
       </c>
       <c r="S90">
@@ -6157,52 +6157,52 @@
       <c r="B91">
         <v>136</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="3">
         <v>-0.27</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>-0.5</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>0.22</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="3">
         <v>-0.37</v>
       </c>
       <c r="G91">
         <v>63</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="3">
         <v>0.75</v>
       </c>
       <c r="I91">
         <v>73</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="3">
         <v>-0.24</v>
       </c>
       <c r="K91">
         <v>29</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="3">
         <v>-0.48</v>
       </c>
       <c r="M91">
         <v>34</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="3">
         <v>-0.11</v>
       </c>
       <c r="O91">
         <v>33</v>
       </c>
-      <c r="P91">
+      <c r="P91" s="3">
         <v>0.19</v>
       </c>
       <c r="Q91">
         <v>40</v>
       </c>
-      <c r="R91">
+      <c r="R91" s="3">
         <v>0.7</v>
       </c>
       <c r="S91">
@@ -6216,52 +6216,52 @@
       <c r="B92">
         <v>127</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>-0.21</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="3">
         <v>-0.43</v>
       </c>
       <c r="G92">
         <v>60</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="3">
         <v>-0.06</v>
       </c>
       <c r="I92">
         <v>67</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="3">
         <v>-0.08</v>
       </c>
       <c r="K92">
         <v>29</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="3">
         <v>-0.75</v>
       </c>
       <c r="M92">
         <v>31</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="3">
         <v>-0.24</v>
       </c>
       <c r="O92">
         <v>33</v>
       </c>
-      <c r="P92">
+      <c r="P92" s="3">
         <v>0.32</v>
       </c>
       <c r="Q92">
         <v>34</v>
       </c>
-      <c r="R92">
+      <c r="R92" s="3">
         <v>-0.11</v>
       </c>
       <c r="S92">
@@ -6275,52 +6275,52 @@
       <c r="B93">
         <v>136</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="3">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>0.01</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>-0.3</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="3">
         <v>-0.35</v>
       </c>
       <c r="G93">
         <v>75</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="3">
         <v>-0.26</v>
       </c>
       <c r="I93">
         <v>60</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="3">
         <v>-0.67</v>
       </c>
       <c r="K93">
         <v>36</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="3">
         <v>-0.06</v>
       </c>
       <c r="M93">
         <v>39</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="3">
         <v>-0.28999999999999998</v>
       </c>
       <c r="O93">
         <v>21</v>
       </c>
-      <c r="P93">
+      <c r="P93" s="3">
         <v>0.15</v>
       </c>
       <c r="Q93">
         <v>39</v>
       </c>
-      <c r="R93">
+      <c r="R93" s="3">
         <v>-0.26</v>
       </c>
       <c r="S93">
@@ -6334,52 +6334,52 @@
       <c r="B94">
         <v>104</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="3">
         <v>-0.3</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>-0.01</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="3">
         <v>0.06</v>
       </c>
       <c r="G94">
         <v>48</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="3">
         <v>-0.63</v>
       </c>
       <c r="I94">
         <v>55</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="3">
         <v>0.03</v>
       </c>
       <c r="K94">
         <v>25</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="3">
         <v>0.1</v>
       </c>
       <c r="M94">
         <v>23</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="3">
         <v>0.25</v>
       </c>
       <c r="O94">
         <v>36</v>
       </c>
-      <c r="P94">
+      <c r="P94" s="3">
         <v>-0.08</v>
       </c>
       <c r="Q94">
         <v>19</v>
       </c>
-      <c r="R94">
+      <c r="R94" s="3">
         <v>-0.77</v>
       </c>
       <c r="S94">
@@ -6393,52 +6393,52 @@
       <c r="B95">
         <v>136</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="3">
         <v>-0.32</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>-0.24</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>-0.08</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="3">
         <v>0.17</v>
       </c>
       <c r="G95">
         <v>64</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="3">
         <v>-0.25</v>
       </c>
       <c r="I95">
         <v>72</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="3">
         <v>0.19</v>
       </c>
       <c r="K95">
         <v>37</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="3">
         <v>0.16</v>
       </c>
       <c r="M95">
         <v>27</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="3">
         <v>0.61</v>
       </c>
       <c r="O95">
         <v>40</v>
       </c>
-      <c r="P95">
+      <c r="P95" s="3">
         <v>0.09</v>
       </c>
       <c r="Q95">
         <v>32</v>
       </c>
-      <c r="R95">
+      <c r="R95" s="3">
         <v>-0.64</v>
       </c>
       <c r="S95">
@@ -6452,52 +6452,52 @@
       <c r="B96">
         <v>136</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="3">
         <v>-0.32</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>-0.32</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>0</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="3">
         <v>0.03</v>
       </c>
       <c r="G96">
         <v>73</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="3">
         <v>-0.06</v>
       </c>
       <c r="I96">
         <v>62</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="3">
         <v>-0.03</v>
       </c>
       <c r="K96">
         <v>41</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="3">
         <v>0.11</v>
       </c>
       <c r="M96">
         <v>32</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="3">
         <v>0.24</v>
       </c>
       <c r="O96">
         <v>25</v>
       </c>
-      <c r="P96">
+      <c r="P96" s="3">
         <v>-0.17</v>
       </c>
       <c r="Q96">
         <v>37</v>
       </c>
-      <c r="R96">
+      <c r="R96" s="3">
         <v>-0.06</v>
       </c>
       <c r="S96">
@@ -6511,52 +6511,52 @@
       <c r="B97">
         <v>111</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="3">
         <v>-0.33</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>-0.33</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>0</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="3">
         <v>-0.26</v>
       </c>
       <c r="G97">
         <v>62</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="3">
         <v>0.24</v>
       </c>
       <c r="I97">
         <v>48</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="3">
         <v>0.15</v>
       </c>
       <c r="K97">
         <v>30</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="3">
         <v>-0.65</v>
       </c>
       <c r="M97">
         <v>32</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="3">
         <v>-0.01</v>
       </c>
       <c r="O97">
         <v>19</v>
       </c>
-      <c r="P97">
+      <c r="P97" s="3">
         <v>0.8</v>
       </c>
       <c r="Q97">
         <v>29</v>
       </c>
-      <c r="R97">
+      <c r="R97" s="3">
         <v>-0.24</v>
       </c>
       <c r="S97">
@@ -6570,52 +6570,52 @@
       <c r="B98">
         <v>136</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="3">
         <v>-0.35</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>0.01</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>-0.36</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="3">
         <v>-0.21</v>
       </c>
       <c r="G98">
         <v>67</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="3">
         <v>-0.49</v>
       </c>
       <c r="I98">
         <v>68</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="3">
         <v>-0.03</v>
       </c>
       <c r="K98">
         <v>36</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="3">
         <v>-0.42</v>
       </c>
       <c r="M98">
         <v>31</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="3">
         <v>0.04</v>
       </c>
       <c r="O98">
         <v>33</v>
       </c>
-      <c r="P98">
+      <c r="P98" s="3">
         <v>0.32</v>
       </c>
       <c r="Q98">
         <v>35</v>
       </c>
-      <c r="R98">
+      <c r="R98" s="3">
         <v>-0.68</v>
       </c>
       <c r="S98">
@@ -6629,52 +6629,52 @@
       <c r="B99">
         <v>136</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="3">
         <v>-0.35</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>-0.52</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>0.17</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="3">
         <v>0.85</v>
       </c>
       <c r="G99">
         <v>61</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="3">
         <v>-0.34</v>
       </c>
       <c r="I99">
         <v>73</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="3">
         <v>0.56999999999999995</v>
       </c>
       <c r="K99">
         <v>33</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="3">
         <v>1.18</v>
       </c>
       <c r="M99">
         <v>28</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="3">
         <v>0.2</v>
       </c>
       <c r="O99">
         <v>37</v>
       </c>
-      <c r="P99">
+      <c r="P99" s="3">
         <v>-0.35</v>
       </c>
       <c r="Q99">
         <v>36</v>
       </c>
-      <c r="R99">
+      <c r="R99" s="3">
         <v>-0.27</v>
       </c>
       <c r="S99">
@@ -6688,52 +6688,52 @@
       <c r="B100">
         <v>136</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="3">
         <v>-0.36</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>0.02</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>-0.37</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="3">
         <v>-0.34</v>
       </c>
       <c r="G100">
         <v>56</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="3">
         <v>-0.48</v>
       </c>
       <c r="I100">
         <v>80</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="3">
         <v>-0.16</v>
       </c>
       <c r="K100">
         <v>26</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="3">
         <v>-0.5</v>
       </c>
       <c r="M100">
         <v>30</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="3">
         <v>0.02</v>
       </c>
       <c r="O100">
         <v>40</v>
       </c>
-      <c r="P100">
+      <c r="P100" s="3">
         <v>0.13</v>
       </c>
       <c r="Q100">
         <v>40</v>
       </c>
-      <c r="R100">
+      <c r="R100" s="3">
         <v>-0.56000000000000005</v>
       </c>
       <c r="S100">
@@ -6747,52 +6747,52 @@
       <c r="B101">
         <v>136</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="3">
         <v>-0.39</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>0.12</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>-0.5</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="3">
         <v>-0.35</v>
       </c>
       <c r="G101">
         <v>64</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="3">
         <v>-0.76</v>
       </c>
       <c r="I101">
         <v>72</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="3">
         <v>-0.83</v>
       </c>
       <c r="K101">
         <v>35</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="3">
         <v>0.22</v>
       </c>
       <c r="M101">
         <v>29</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="3">
         <v>-0.2</v>
       </c>
       <c r="O101">
         <v>34</v>
       </c>
-      <c r="P101">
+      <c r="P101" s="3">
         <v>0.01</v>
       </c>
       <c r="Q101">
         <v>38</v>
       </c>
-      <c r="R101">
+      <c r="R101" s="3">
         <v>-0.67</v>
       </c>
       <c r="S101">
@@ -6806,52 +6806,52 @@
       <c r="B102">
         <v>136</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="3">
         <v>-0.39</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>-0.27</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>-0.12</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="3">
         <v>0.17</v>
       </c>
       <c r="G102">
         <v>65</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="3">
         <v>-0.33</v>
       </c>
       <c r="I102">
         <v>71</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="3">
         <v>0.4</v>
       </c>
       <c r="K102">
         <v>32</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="3">
         <v>-0.05</v>
       </c>
       <c r="M102">
         <v>33</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="3">
         <v>0.2</v>
       </c>
       <c r="O102">
         <v>45</v>
       </c>
-      <c r="P102">
+      <c r="P102" s="3">
         <v>0.03</v>
       </c>
       <c r="Q102">
         <v>26</v>
       </c>
-      <c r="R102">
+      <c r="R102" s="3">
         <v>-0.47</v>
       </c>
       <c r="S102">
@@ -6865,52 +6865,52 @@
       <c r="B103">
         <v>136</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="3">
         <v>-0.42</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>-0.24</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>-0.18</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="3">
         <v>0.36</v>
       </c>
       <c r="G103">
         <v>61</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="3">
         <v>-0.7</v>
       </c>
       <c r="I103">
         <v>74</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="3">
         <v>0.06</v>
       </c>
       <c r="K103">
         <v>32</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="3">
         <v>0.7</v>
       </c>
       <c r="M103">
         <v>29</v>
       </c>
-      <c r="N103">
+      <c r="N103" s="3">
         <v>-0.22</v>
       </c>
       <c r="O103">
         <v>35</v>
       </c>
-      <c r="P103">
+      <c r="P103" s="3">
         <v>0.13</v>
       </c>
       <c r="Q103">
         <v>39</v>
       </c>
-      <c r="R103">
+      <c r="R103" s="3">
         <v>-0.66</v>
       </c>
       <c r="S103">
@@ -6924,52 +6924,52 @@
       <c r="B104">
         <v>136</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="3">
         <v>-0.44</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>-0.18</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>-0.26</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="3">
         <v>0.06</v>
       </c>
       <c r="G104">
         <v>60</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="3">
         <v>-0.54</v>
       </c>
       <c r="I104">
         <v>75</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="3">
         <v>-0.27</v>
       </c>
       <c r="K104">
         <v>22</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="3">
         <v>0.25</v>
       </c>
       <c r="M104">
         <v>38</v>
       </c>
-      <c r="N104">
+      <c r="N104" s="3">
         <v>0.15</v>
       </c>
       <c r="O104">
         <v>36</v>
       </c>
-      <c r="P104">
+      <c r="P104" s="3">
         <v>-0.27</v>
       </c>
       <c r="Q104">
         <v>39</v>
       </c>
-      <c r="R104">
+      <c r="R104" s="3">
         <v>-0.47</v>
       </c>
       <c r="S104">
@@ -6983,52 +6983,52 @@
       <c r="B105">
         <v>136</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="3">
         <v>-0.49</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <v>-0.2</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="3">
         <v>-0.12</v>
       </c>
       <c r="G105">
         <v>61</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="3">
         <v>-0.49</v>
       </c>
       <c r="I105">
         <v>74</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="3">
         <v>-0.16</v>
       </c>
       <c r="K105">
         <v>36</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="3">
         <v>-0.06</v>
       </c>
       <c r="M105">
         <v>25</v>
       </c>
-      <c r="N105">
+      <c r="N105" s="3">
         <v>-0.1</v>
       </c>
       <c r="O105">
         <v>42</v>
       </c>
-      <c r="P105">
+      <c r="P105" s="3">
         <v>0.15</v>
       </c>
       <c r="Q105">
         <v>32</v>
       </c>
-      <c r="R105">
+      <c r="R105" s="3">
         <v>-0.5</v>
       </c>
       <c r="S105">
@@ -7042,52 +7042,52 @@
       <c r="B106">
         <v>136</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="3">
         <v>-0.51</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <v>0.08</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="3">
         <v>-0.47</v>
       </c>
       <c r="G106">
         <v>70</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="3">
         <v>-0.89</v>
       </c>
       <c r="I106">
         <v>66</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="3">
         <v>-0.48</v>
       </c>
       <c r="K106">
         <v>42</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="3">
         <v>-0.47</v>
       </c>
       <c r="M106">
         <v>28</v>
       </c>
-      <c r="N106">
+      <c r="N106" s="3">
         <v>-0.08</v>
       </c>
       <c r="O106">
         <v>28</v>
       </c>
-      <c r="P106">
+      <c r="P106" s="3">
         <v>-0.26</v>
       </c>
       <c r="Q106">
         <v>38</v>
       </c>
-      <c r="R106">
+      <c r="R106" s="3">
         <v>-0.71</v>
       </c>
       <c r="S106">
@@ -7101,52 +7101,52 @@
       <c r="B107">
         <v>136</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="3">
         <v>-0.52</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>-0.37</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="3">
         <v>-0.4</v>
       </c>
       <c r="G107">
         <v>68</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="3">
         <v>-0.48</v>
       </c>
       <c r="I107">
         <v>68</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="3">
         <v>-0.18</v>
       </c>
       <c r="K107">
         <v>32</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="3">
         <v>-0.6</v>
       </c>
       <c r="M107">
         <v>36</v>
       </c>
-      <c r="N107">
+      <c r="N107" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="O107">
         <v>39</v>
       </c>
-      <c r="P107">
+      <c r="P107" s="3">
         <v>0.31</v>
       </c>
       <c r="Q107">
         <v>29</v>
       </c>
-      <c r="R107">
+      <c r="R107" s="3">
         <v>-0.56999999999999995</v>
       </c>
       <c r="S107">
@@ -7160,52 +7160,52 @@
       <c r="B108">
         <v>104</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="3">
         <v>-0.53</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
         <v>-0.52</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>-0.01</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="3">
         <v>-0.4</v>
       </c>
       <c r="G108">
         <v>56</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="3">
         <v>0.43</v>
       </c>
       <c r="I108">
         <v>48</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="3">
         <v>-0.76</v>
       </c>
       <c r="K108">
         <v>24</v>
       </c>
-      <c r="L108">
+      <c r="L108" s="3">
         <v>-0.13</v>
       </c>
       <c r="M108">
         <v>32</v>
       </c>
-      <c r="N108">
+      <c r="N108" s="3">
         <v>-0.21</v>
       </c>
       <c r="O108">
         <v>25</v>
       </c>
-      <c r="P108">
+      <c r="P108" s="3">
         <v>0.22</v>
       </c>
       <c r="Q108">
         <v>23</v>
       </c>
-      <c r="R108">
+      <c r="R108" s="3">
         <v>0.43</v>
       </c>
       <c r="S108">
@@ -7219,52 +7219,52 @@
       <c r="B109">
         <v>136</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="3">
         <v>-0.53</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
         <v>-0.02</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>-0.51</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="3">
         <v>-0.31</v>
       </c>
       <c r="G109">
         <v>68</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="3">
         <v>-0.83</v>
       </c>
       <c r="I109">
         <v>68</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="3">
         <v>-0.48</v>
       </c>
       <c r="K109">
         <v>30</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="3">
         <v>-0.17</v>
       </c>
       <c r="M109">
         <v>38</v>
       </c>
-      <c r="N109">
+      <c r="N109" s="3">
         <v>0.35</v>
       </c>
       <c r="O109">
         <v>36</v>
       </c>
-      <c r="P109">
+      <c r="P109" s="3">
         <v>-0.43</v>
       </c>
       <c r="Q109">
         <v>32</v>
       </c>
-      <c r="R109">
+      <c r="R109" s="3">
         <v>-0.82</v>
       </c>
       <c r="S109">
@@ -7278,52 +7278,52 @@
       <c r="B110">
         <v>136</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="3">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <v>-0.2</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>-0.36</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="3">
         <v>-0.33</v>
       </c>
       <c r="G110">
         <v>70</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="3">
         <v>-0.46</v>
       </c>
       <c r="I110">
         <v>65</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="3">
         <v>-1.19</v>
       </c>
       <c r="K110">
         <v>37</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="3">
         <v>0.63</v>
       </c>
       <c r="M110">
         <v>33</v>
       </c>
-      <c r="N110">
+      <c r="N110" s="3">
         <v>-0.6</v>
       </c>
       <c r="O110">
         <v>35</v>
       </c>
-      <c r="P110">
+      <c r="P110" s="3">
         <v>-0.1</v>
       </c>
       <c r="Q110">
         <v>30</v>
       </c>
-      <c r="R110">
+      <c r="R110" s="3">
         <v>-0.09</v>
       </c>
       <c r="S110">
@@ -7337,52 +7337,52 @@
       <c r="B111">
         <v>136</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="3">
         <v>-0.6</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
         <v>0</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>-0.6</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="3">
         <v>-0.11</v>
       </c>
       <c r="G111">
         <v>64</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="3">
         <v>-1.27</v>
       </c>
       <c r="I111">
         <v>70</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="3">
         <v>-0.71</v>
       </c>
       <c r="K111">
         <v>27</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="3">
         <v>0.34</v>
       </c>
       <c r="M111">
         <v>37</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="3">
         <v>-0.01</v>
       </c>
       <c r="O111">
         <v>33</v>
       </c>
-      <c r="P111">
+      <c r="P111" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="Q111">
         <v>37</v>
       </c>
-      <c r="R111">
+      <c r="R111" s="3">
         <v>-1.41</v>
       </c>
       <c r="S111">
@@ -7396,52 +7396,52 @@
       <c r="B112">
         <v>136</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="3">
         <v>-0.62</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
         <v>0.03</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>-0.65</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="3">
         <v>-0.56000000000000005</v>
       </c>
       <c r="G112">
         <v>70</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="3">
         <v>-0.74</v>
       </c>
       <c r="I112">
         <v>64</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="3">
         <v>-1.27</v>
       </c>
       <c r="K112">
         <v>36</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="3">
         <v>0.19</v>
       </c>
       <c r="M112">
         <v>34</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="3">
         <v>-0.05</v>
       </c>
       <c r="O112">
         <v>32</v>
       </c>
-      <c r="P112">
+      <c r="P112" s="3">
         <v>-0.76</v>
       </c>
       <c r="Q112">
         <v>32</v>
       </c>
-      <c r="R112">
+      <c r="R112" s="3">
         <v>-0.33</v>
       </c>
       <c r="S112">
@@ -7455,52 +7455,52 @@
       <c r="B113">
         <v>136</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="3">
         <v>-0.63</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
         <v>-0.61</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>-0.01</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="3">
         <v>0.31</v>
       </c>
       <c r="G113">
         <v>72</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="3">
         <v>-0.4</v>
       </c>
       <c r="I113">
         <v>61</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="3">
         <v>0.53</v>
       </c>
       <c r="K113">
         <v>41</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="3">
         <v>0.01</v>
       </c>
       <c r="M113">
         <v>31</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="3">
         <v>0.26</v>
       </c>
       <c r="O113">
         <v>31</v>
       </c>
-      <c r="P113">
+      <c r="P113" s="3">
         <v>-0.2</v>
       </c>
       <c r="Q113">
         <v>30</v>
       </c>
-      <c r="R113">
+      <c r="R113" s="3">
         <v>-0.44</v>
       </c>
       <c r="S113">
@@ -7514,52 +7514,52 @@
       <c r="B114">
         <v>134</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="3">
         <v>-0.65</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
         <v>-0.05</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>-0.6</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="3">
         <v>-0.13</v>
       </c>
       <c r="G114">
         <v>57</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="3">
         <v>-1.08</v>
       </c>
       <c r="I114">
         <v>76</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="3">
         <v>-0.33</v>
       </c>
       <c r="K114">
         <v>30</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="3">
         <v>0.1</v>
       </c>
       <c r="M114">
         <v>27</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="3">
         <v>-0.26</v>
       </c>
       <c r="O114">
         <v>37</v>
       </c>
-      <c r="P114">
+      <c r="P114" s="3">
         <v>-0.48</v>
       </c>
       <c r="Q114">
         <v>39</v>
       </c>
-      <c r="R114">
+      <c r="R114" s="3">
         <v>-0.71</v>
       </c>
       <c r="S114">
@@ -7573,52 +7573,52 @@
       <c r="B115">
         <v>96</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="3">
         <v>-0.67</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
         <v>-0.76</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>0.08</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="3">
         <v>0.65</v>
       </c>
       <c r="G115">
         <v>55</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="3">
         <v>-0.55000000000000004</v>
       </c>
       <c r="I115">
         <v>41</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="3">
         <v>0.92</v>
       </c>
       <c r="K115">
         <v>26</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="3">
         <v>0.42</v>
       </c>
       <c r="M115">
         <v>29</v>
       </c>
-      <c r="N115">
+      <c r="N115" s="3">
         <v>0.28999999999999998</v>
       </c>
       <c r="O115">
         <v>24</v>
       </c>
-      <c r="P115">
+      <c r="P115" s="3">
         <v>0.23</v>
       </c>
       <c r="Q115">
         <v>17</v>
       </c>
-      <c r="R115">
+      <c r="R115" s="3">
         <v>-0.81</v>
       </c>
       <c r="S115">
@@ -7632,52 +7632,52 @@
       <c r="B116">
         <v>136</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="3">
         <v>-0.68</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
         <v>-0.41</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>-0.27</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="3">
         <v>-0.19</v>
       </c>
       <c r="G116">
         <v>69</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="3">
         <v>-0.39</v>
       </c>
       <c r="I116">
         <v>67</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="3">
         <v>0.02</v>
       </c>
       <c r="K116">
         <v>35</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="3">
         <v>-0.41</v>
       </c>
       <c r="M116">
         <v>34</v>
       </c>
-      <c r="N116">
+      <c r="N116" s="3">
         <v>0.36</v>
       </c>
       <c r="O116">
         <v>37</v>
       </c>
-      <c r="P116">
+      <c r="P116" s="3">
         <v>-0.42</v>
       </c>
       <c r="Q116">
         <v>30</v>
       </c>
-      <c r="R116">
+      <c r="R116" s="3">
         <v>-0.4</v>
       </c>
       <c r="S116">
@@ -7691,52 +7691,52 @@
       <c r="B117">
         <v>136</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="3">
         <v>-0.75</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
         <v>-0.21</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <v>-0.54</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="3">
         <v>0.02</v>
       </c>
       <c r="G117">
         <v>74</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="3">
         <v>-1.1599999999999999</v>
       </c>
       <c r="I117">
         <v>62</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="3">
         <v>0.12</v>
       </c>
       <c r="K117">
         <v>40</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="3">
         <v>-0.1</v>
       </c>
       <c r="M117">
         <v>34</v>
       </c>
-      <c r="N117">
+      <c r="N117" s="3">
         <v>-0.37</v>
       </c>
       <c r="O117">
         <v>32</v>
       </c>
-      <c r="P117">
+      <c r="P117" s="3">
         <v>-0.51</v>
       </c>
       <c r="Q117">
         <v>30</v>
       </c>
-      <c r="R117">
+      <c r="R117" s="3">
         <v>-0.72</v>
       </c>
       <c r="S117">
@@ -7750,52 +7750,52 @@
       <c r="B118">
         <v>88</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="3">
         <v>-0.77</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="3">
         <v>-0.54</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <v>-0.23</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="3">
         <v>-0.67</v>
       </c>
       <c r="G118">
         <v>44</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="3">
         <v>0.24</v>
       </c>
       <c r="I118">
         <v>44</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="3">
         <v>-0.1</v>
       </c>
       <c r="K118">
         <v>18</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="3">
         <v>-1.07</v>
       </c>
       <c r="M118">
         <v>26</v>
       </c>
-      <c r="N118">
+      <c r="N118" s="3">
         <v>0.08</v>
       </c>
       <c r="O118">
         <v>21</v>
       </c>
-      <c r="P118">
+      <c r="P118" s="3">
         <v>0.76</v>
       </c>
       <c r="Q118">
         <v>23</v>
       </c>
-      <c r="R118">
+      <c r="R118" s="3">
         <v>-0.2</v>
       </c>
       <c r="S118">
@@ -7809,52 +7809,52 @@
       <c r="B119">
         <v>96</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="3">
         <v>-0.96</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="3">
         <v>-0.1</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="3">
         <v>-0.86</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="3">
         <v>-0.47</v>
       </c>
       <c r="G119">
         <v>39</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="3">
         <v>-1.32</v>
       </c>
       <c r="I119">
         <v>56</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="3">
         <v>0.76</v>
       </c>
       <c r="K119">
         <v>20</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="3">
         <v>-1.76</v>
       </c>
       <c r="M119">
         <v>19</v>
       </c>
-      <c r="N119">
+      <c r="N119" s="3">
         <v>-0.18</v>
       </c>
       <c r="O119">
         <v>35</v>
       </c>
-      <c r="P119">
+      <c r="P119" s="3">
         <v>-0.79</v>
       </c>
       <c r="Q119">
         <v>21</v>
       </c>
-      <c r="R119">
+      <c r="R119" s="3">
         <v>-0.91</v>
       </c>
       <c r="S119">
@@ -7868,52 +7868,52 @@
       <c r="B120">
         <v>136</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="3">
         <v>-0.97</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="3">
         <v>-0.53</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="3">
         <v>-0.44</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="3">
         <v>0.16</v>
       </c>
       <c r="G120">
         <v>78</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="3">
         <v>-1.29</v>
       </c>
       <c r="I120">
         <v>57</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="3">
         <v>0.21</v>
       </c>
       <c r="K120">
         <v>55</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="3">
         <v>0.04</v>
       </c>
       <c r="M120">
         <v>23</v>
       </c>
-      <c r="N120">
+      <c r="N120" s="3">
         <v>-0.39</v>
       </c>
       <c r="O120">
         <v>29</v>
       </c>
-      <c r="P120">
+      <c r="P120" s="3">
         <v>-0.05</v>
       </c>
       <c r="Q120">
         <v>28</v>
       </c>
-      <c r="R120">
+      <c r="R120" s="3">
         <v>-1.07</v>
       </c>
       <c r="S120">
@@ -7927,52 +7927,52 @@
       <c r="B121">
         <v>136</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="3">
         <v>-0.97</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="3">
         <v>-0.46</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="3">
         <v>-0.51</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="3">
         <v>-0.06</v>
       </c>
       <c r="G121">
         <v>61</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="3">
         <v>-1.07</v>
       </c>
       <c r="I121">
         <v>73</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="3">
         <v>0.2</v>
       </c>
       <c r="K121">
         <v>34</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="3">
         <v>-0.39</v>
       </c>
       <c r="M121">
         <v>27</v>
       </c>
-      <c r="N121">
+      <c r="N121" s="3">
         <v>0.35</v>
       </c>
       <c r="O121">
         <v>40</v>
       </c>
-      <c r="P121">
+      <c r="P121" s="3">
         <v>-0.9</v>
       </c>
       <c r="Q121">
         <v>33</v>
       </c>
-      <c r="R121">
+      <c r="R121" s="3">
         <v>-0.85</v>
       </c>
       <c r="S121">
@@ -7986,52 +7986,52 @@
       <c r="B122">
         <v>136</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="3">
         <v>-1.01</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="3">
         <v>-0.62</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="3">
         <v>-0.39</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="3">
         <v>-0.01</v>
       </c>
       <c r="G122">
         <v>67</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="3">
         <v>-0.85</v>
       </c>
       <c r="I122">
         <v>69</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="3">
         <v>0.03</v>
       </c>
       <c r="K122">
         <v>42</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M122">
         <v>25</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="3">
         <v>0.78</v>
       </c>
       <c r="O122">
         <v>34</v>
       </c>
-      <c r="P122">
+      <c r="P122" s="3">
         <v>-0.02</v>
       </c>
       <c r="Q122">
         <v>35</v>
       </c>
-      <c r="R122">
+      <c r="R122" s="3">
         <v>-1.22</v>
       </c>
       <c r="S122">
@@ -8045,52 +8045,52 @@
       <c r="B123">
         <v>136</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="3">
         <v>-1.06</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="3">
         <v>-0.38</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="3">
         <v>-0.68</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="3">
         <v>-0.57999999999999996</v>
       </c>
       <c r="G123">
         <v>71</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="3">
         <v>-0.89</v>
       </c>
       <c r="I123">
         <v>63</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="3">
         <v>-0.12</v>
       </c>
       <c r="K123">
         <v>33</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="3">
         <v>-0.99</v>
       </c>
       <c r="M123">
         <v>38</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="3">
         <v>-0.36</v>
       </c>
       <c r="O123">
         <v>36</v>
       </c>
-      <c r="P123">
+      <c r="P123" s="3">
         <v>0.35</v>
       </c>
       <c r="Q123">
         <v>27</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="3">
         <v>-0.83</v>
       </c>
       <c r="S123">
@@ -8104,52 +8104,52 @@
       <c r="B124">
         <v>96</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="3">
         <v>-1.1399999999999999</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="3">
         <v>-0.26</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="3">
         <v>-0.88</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="3">
         <v>-0.98</v>
       </c>
       <c r="G124">
         <v>43</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="3">
         <v>-1.0900000000000001</v>
       </c>
       <c r="I124">
         <v>53</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="3">
         <v>-2.31</v>
       </c>
       <c r="K124">
         <v>15</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="3">
         <v>-0.27</v>
       </c>
       <c r="M124">
         <v>28</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="3">
         <v>-0.31</v>
       </c>
       <c r="O124">
         <v>25</v>
       </c>
-      <c r="P124">
+      <c r="P124" s="3">
         <v>0.13</v>
       </c>
       <c r="Q124">
         <v>28</v>
       </c>
-      <c r="R124">
+      <c r="R124" s="3">
         <v>-1.01</v>
       </c>
       <c r="S124">
@@ -8163,52 +8163,52 @@
       <c r="B125">
         <v>136</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="3">
         <v>-1.17</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="3">
         <v>-0.8</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="3">
         <v>-0.37</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="3">
         <v>-0.27</v>
       </c>
       <c r="G125">
         <v>61</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="3">
         <v>-0.56999999999999995</v>
       </c>
       <c r="I125">
         <v>74</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="3">
         <v>-0.05</v>
       </c>
       <c r="K125">
         <v>32</v>
       </c>
-      <c r="L125">
+      <c r="L125" s="3">
         <v>-0.52</v>
       </c>
       <c r="M125">
         <v>29</v>
       </c>
-      <c r="N125">
+      <c r="N125" s="3">
         <v>-0.08</v>
       </c>
       <c r="O125">
         <v>39</v>
       </c>
-      <c r="P125">
+      <c r="P125" s="3">
         <v>0.69</v>
       </c>
       <c r="Q125">
         <v>35</v>
       </c>
-      <c r="R125">
+      <c r="R125" s="3">
         <v>-0.86</v>
       </c>
       <c r="S125">
@@ -8222,52 +8222,52 @@
       <c r="B126">
         <v>136</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="3">
         <v>-1.56</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="3">
         <v>-0.65</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="3">
         <v>-0.91</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="3">
         <v>-0.14000000000000001</v>
       </c>
       <c r="G126">
         <v>77</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="3">
         <v>-2.0499999999999998</v>
       </c>
       <c r="I126">
         <v>57</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="3">
         <v>-0.26</v>
       </c>
       <c r="K126">
         <v>47</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="3">
         <v>0.04</v>
       </c>
       <c r="M126">
         <v>30</v>
       </c>
-      <c r="N126">
+      <c r="N126" s="3">
         <v>0.08</v>
       </c>
       <c r="O126">
         <v>35</v>
       </c>
-      <c r="P126">
+      <c r="P126" s="3">
         <v>-1.22</v>
       </c>
       <c r="Q126">
         <v>22</v>
       </c>
-      <c r="R126">
+      <c r="R126" s="3">
         <v>-1.62</v>
       </c>
       <c r="S126">
@@ -8281,52 +8281,52 @@
       <c r="B127">
         <v>136</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="3">
         <v>-1.66</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
         <v>-0.8</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="3">
         <v>-0.85</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="3">
         <v>-0.25</v>
       </c>
       <c r="G127">
         <v>66</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="3">
         <v>-1.65</v>
       </c>
       <c r="I127">
         <v>68</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="3">
         <v>-0.54</v>
       </c>
       <c r="K127">
         <v>38</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="3">
         <v>0.14000000000000001</v>
       </c>
       <c r="M127">
         <v>28</v>
       </c>
-      <c r="N127">
+      <c r="N127" s="3">
         <v>-0.37</v>
       </c>
       <c r="O127">
         <v>33</v>
       </c>
-      <c r="P127">
+      <c r="P127" s="3">
         <v>0.18</v>
       </c>
       <c r="Q127">
         <v>35</v>
       </c>
-      <c r="R127">
+      <c r="R127" s="3">
         <v>-1.57</v>
       </c>
       <c r="S127">
@@ -8340,52 +8340,52 @@
       <c r="B128">
         <v>88</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="3">
         <v>-1.76</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="3">
         <v>-0.88</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="3">
         <v>-0.88</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="3">
         <v>-1.26</v>
       </c>
       <c r="G128">
         <v>41</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="3">
         <v>-0.6</v>
       </c>
       <c r="I128">
         <v>47</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="3">
         <v>-1.96</v>
       </c>
       <c r="K128">
         <v>18</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="3">
         <v>-0.71</v>
       </c>
       <c r="M128">
         <v>23</v>
       </c>
-      <c r="N128">
+      <c r="N128" s="3">
         <v>0.55000000000000004</v>
       </c>
       <c r="O128">
         <v>22</v>
       </c>
-      <c r="P128">
+      <c r="P128" s="3">
         <v>0.59</v>
       </c>
       <c r="Q128">
         <v>25</v>
       </c>
-      <c r="R128">
+      <c r="R128" s="3">
         <v>-1.1599999999999999</v>
       </c>
       <c r="S128">
@@ -8398,7 +8398,10 @@
       <sortCondition descending="1" ref="C1:C128"/>
     </sortState>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L2019 German Trophy IMPs-across-the-field&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>